--- a/electricity.xlsx
+++ b/electricity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13041433f797972d/Desktop/projects/Electric - Copy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13041433f797972d/Desktop/projects/SEA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{9D7FE476-5317-4348-890A-CA91AFEAEB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59552F80-99AE-4ADC-83C2-89FF6954E674}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{9D7FE476-5317-4348-890A-CA91AFEAEB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D5D4DA2-9291-422C-8C5F-2320250548BE}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7785" xr2:uid="{4ADB2E1D-6269-4337-9246-1F63222459BE}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{4ADB2E1D-6269-4337-9246-1F63222459BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -405,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F67228-7C4A-49D1-9145-90492285726D}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,6 +507,26 @@
         <v>120.4</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>54500210984</v>
+      </c>
+      <c r="B5">
+        <v>5810154969234580</v>
+      </c>
+      <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>500</v>
+      </c>
+      <c r="E5">
+        <v>200</v>
+      </c>
+      <c r="F5">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/electricity.xlsx
+++ b/electricity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13041433f797972d/Desktop/projects/SEA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{9D7FE476-5317-4348-890A-CA91AFEAEB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D5D4DA2-9291-422C-8C5F-2320250548BE}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="14_{81205701-510F-4FC4-B908-48E280CCAE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{047FF8B9-72B5-4597-8394-3C1224C0A886}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{4ADB2E1D-6269-4337-9246-1F63222459BE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4ADB2E1D-6269-4337-9246-1F63222459BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Token</t>
   </si>
@@ -39,10 +39,37 @@
     <t>Token Amount</t>
   </si>
   <si>
-    <t>Other Charges</t>
-  </si>
-  <si>
     <t>Meter</t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>Muranga</t>
+  </si>
+  <si>
+    <t>Nairobi</t>
+  </si>
+  <si>
+    <t>Machakos</t>
+  </si>
+  <si>
+    <t>Kiambu</t>
+  </si>
+  <si>
+    <t>Nakuru</t>
+  </si>
+  <si>
+    <t>Nyeri</t>
+  </si>
+  <si>
+    <t>Mombasa</t>
+  </si>
+  <si>
+    <t>Lamu</t>
+  </si>
+  <si>
+    <t>watts</t>
   </si>
 </sst>
 </file>
@@ -106,6 +133,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -405,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F67228-7C4A-49D1-9145-90492285726D}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,7 +456,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -440,7 +471,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -460,14 +494,16 @@
         <v>106.86</v>
       </c>
       <c r="F2">
-        <v>93.14</v>
-      </c>
-      <c r="G2" s="2"/>
+        <v>12000</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>54500210984</v>
+        <v>54500210858</v>
       </c>
       <c r="B3">
         <v>5810154969226580</v>
@@ -482,17 +518,19 @@
         <v>53.43</v>
       </c>
       <c r="F3">
-        <v>46.57</v>
-      </c>
-      <c r="G3" s="2"/>
+        <v>15000</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>54500210984</v>
+        <v>54500210858</v>
       </c>
       <c r="B4">
-        <v>5810154969234580</v>
+        <v>5810154969226580</v>
       </c>
       <c r="C4">
         <v>14</v>
@@ -504,15 +542,18 @@
         <v>150</v>
       </c>
       <c r="F4">
-        <v>120.4</v>
+        <v>20000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>54500210984</v>
+        <v>54500210858</v>
       </c>
       <c r="B5">
-        <v>5810154969234580</v>
+        <v>5810154969226580</v>
       </c>
       <c r="C5">
         <v>22</v>
@@ -521,10 +562,105 @@
         <v>500</v>
       </c>
       <c r="E5">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F5">
-        <v>125</v>
+        <v>150000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>54500210858</v>
+      </c>
+      <c r="B6">
+        <v>5810154969226580</v>
+      </c>
+      <c r="C6">
+        <v>35</v>
+      </c>
+      <c r="D6">
+        <v>700</v>
+      </c>
+      <c r="E6">
+        <v>310</v>
+      </c>
+      <c r="F6">
+        <v>300000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>54500210858</v>
+      </c>
+      <c r="B7">
+        <v>5810154969226580</v>
+      </c>
+      <c r="C7">
+        <v>42</v>
+      </c>
+      <c r="D7">
+        <v>900</v>
+      </c>
+      <c r="E7">
+        <v>471</v>
+      </c>
+      <c r="F7">
+        <v>20000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>54500210858</v>
+      </c>
+      <c r="B8">
+        <v>5810154969226580</v>
+      </c>
+      <c r="C8">
+        <v>47</v>
+      </c>
+      <c r="D8">
+        <v>1000</v>
+      </c>
+      <c r="E8">
+        <v>563</v>
+      </c>
+      <c r="F8">
+        <v>50000</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>54500210858</v>
+      </c>
+      <c r="B9">
+        <v>5810154969226580</v>
+      </c>
+      <c r="C9">
+        <v>51</v>
+      </c>
+      <c r="D9">
+        <v>1200</v>
+      </c>
+      <c r="E9">
+        <v>726</v>
+      </c>
+      <c r="F9">
+        <v>100000</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/electricity.xlsx
+++ b/electricity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13041433f797972d/Desktop/projects/SEA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="14_{81205701-510F-4FC4-B908-48E280CCAE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{047FF8B9-72B5-4597-8394-3C1224C0A886}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="14_{81205701-510F-4FC4-B908-48E280CCAE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3278F510-94F1-4CC9-9780-E60415B505BE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4ADB2E1D-6269-4337-9246-1F63222459BE}"/>
   </bookViews>
@@ -42,34 +42,34 @@
     <t>Meter</t>
   </si>
   <si>
-    <t>County</t>
-  </si>
-  <si>
-    <t>Muranga</t>
-  </si>
-  <si>
-    <t>Nairobi</t>
-  </si>
-  <si>
-    <t>Machakos</t>
-  </si>
-  <si>
-    <t>Kiambu</t>
-  </si>
-  <si>
-    <t>Nakuru</t>
-  </si>
-  <si>
-    <t>Nyeri</t>
-  </si>
-  <si>
-    <t>Mombasa</t>
-  </si>
-  <si>
-    <t>Lamu</t>
-  </si>
-  <si>
-    <t>watts</t>
+    <t>Kasarani</t>
+  </si>
+  <si>
+    <t>Embakasi</t>
+  </si>
+  <si>
+    <t>Langata</t>
+  </si>
+  <si>
+    <t>Westlands</t>
+  </si>
+  <si>
+    <t>Roysambu</t>
+  </si>
+  <si>
+    <t>Kibra</t>
+  </si>
+  <si>
+    <t>Dagoreti</t>
+  </si>
+  <si>
+    <t>Makadara</t>
+  </si>
+  <si>
+    <t>SubCounty</t>
+  </si>
+  <si>
+    <t>watts(GWH)</t>
   </si>
 </sst>
 </file>
@@ -136,6 +136,18 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -474,7 +486,7 @@
         <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -494,10 +506,10 @@
         <v>106.86</v>
       </c>
       <c r="F2">
-        <v>12000</v>
+        <v>1200</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -518,10 +530,10 @@
         <v>53.43</v>
       </c>
       <c r="F3">
-        <v>15000</v>
+        <v>900</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -542,10 +554,10 @@
         <v>150</v>
       </c>
       <c r="F4">
-        <v>20000</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
+        <v>1500</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -565,10 +577,10 @@
         <v>250</v>
       </c>
       <c r="F5">
-        <v>150000</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
+        <v>1400</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -588,10 +600,10 @@
         <v>310</v>
       </c>
       <c r="F6">
-        <v>300000</v>
-      </c>
-      <c r="G6" t="s">
-        <v>7</v>
+        <v>1100</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -611,9 +623,9 @@
         <v>471</v>
       </c>
       <c r="F7">
-        <v>20000</v>
-      </c>
-      <c r="G7" t="s">
+        <v>800</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -634,10 +646,10 @@
         <v>563</v>
       </c>
       <c r="F8">
-        <v>50000</v>
-      </c>
-      <c r="G8" t="s">
-        <v>8</v>
+        <v>600</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -657,10 +669,10 @@
         <v>726</v>
       </c>
       <c r="F9">
-        <v>100000</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
+        <v>3000</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
